--- a/src/test/resources/testDataXLS/test.xlsx
+++ b/src/test/resources/testDataXLS/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>customerID</t>
   </si>
@@ -48,97 +48,28 @@
     <t>oleksandr1</t>
   </si>
   <si>
-    <t>oleksandr2</t>
-  </si>
-  <si>
-    <t>oleksandr3</t>
-  </si>
-  <si>
-    <t>oleksandr4</t>
-  </si>
-  <si>
-    <t>oleksandr5</t>
-  </si>
-  <si>
-    <t>oleksandr6</t>
-  </si>
-  <si>
     <t>pablo1</t>
   </si>
   <si>
-    <t>pablo2</t>
-  </si>
-  <si>
-    <t>pablo3</t>
-  </si>
-  <si>
-    <t>pablo4</t>
-  </si>
-  <si>
-    <t>pablo5</t>
-  </si>
-  <si>
-    <t>pablo6</t>
-  </si>
-  <si>
     <t>epam1</t>
   </si>
   <si>
-    <t>epam2</t>
-  </si>
-  <si>
-    <t>epam3</t>
-  </si>
-  <si>
-    <t>epam4</t>
-  </si>
-  <si>
-    <t>epam5</t>
-  </si>
-  <si>
-    <t>epam6</t>
-  </si>
-  <si>
     <t>AIRCRAFT</t>
   </si>
   <si>
     <t>op1</t>
   </si>
   <si>
-    <t>op2</t>
-  </si>
-  <si>
-    <t>op3</t>
-  </si>
-  <si>
-    <t>op4</t>
-  </si>
-  <si>
-    <t>op5</t>
-  </si>
-  <si>
-    <t>op6</t>
-  </si>
-  <si>
-    <t>ZZZ</t>
-  </si>
-  <si>
-    <t>AFG</t>
-  </si>
-  <si>
     <t>Chubut</t>
   </si>
   <si>
     <t>a1@yahoo.com</t>
   </si>
   <si>
-    <t>a2@yahoo.com</t>
-  </si>
-  <si>
     <t>g1@gmail.com</t>
   </si>
   <si>
-    <t>g2@gmail.com</t>
+    <t>Albania</t>
   </si>
 </sst>
 </file>
@@ -498,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I4" sqref="A3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,192 +481,37 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H6" r:id="rId4"/>
-    <hyperlink ref="H5" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
-    <hyperlink ref="I2" r:id="rId7"/>
-    <hyperlink ref="I3" r:id="rId8"/>
-    <hyperlink ref="I4" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="I5" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="I2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
